--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65E0E4-178B-481A-AD61-3C911248027D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A528A2-312C-B04D-8D31-0DE3DB1F9E0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26380" windowHeight="15500" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Prediction</t>
   </si>
@@ -48,24 +42,6 @@
     <t>1.4. There is a significant interaction between temperature and precipitation</t>
   </si>
   <si>
-    <t>1.1. Productivity and latitude</t>
-  </si>
-  <si>
-    <t>1.1.1. GPP decreases linearly with latitude</t>
-  </si>
-  <si>
-    <t>1.1.2. NPP peaks in temperate regions</t>
-  </si>
-  <si>
-    <t>1.1.3. ANPP peaks in temperate regions</t>
-  </si>
-  <si>
-    <t>1.2.1. GPP increases linearly with temperature</t>
-  </si>
-  <si>
-    <t>1.2.2. NPP peaks at temperatures around 10C</t>
-  </si>
-  <si>
     <t>Prediction supported?</t>
   </si>
   <si>
@@ -75,24 +51,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>1.1.4. Subsidiary fluxes peak in temperate regions</t>
-  </si>
-  <si>
-    <t>1.2.3. Subsidiary fluxes peak at temperatures around 10C</t>
-  </si>
-  <si>
-    <t>1.4.1. For GPP</t>
-  </si>
-  <si>
-    <t>1.4.2. For NPP</t>
-  </si>
-  <si>
-    <t>1.4.4. For BNPP</t>
-  </si>
-  <si>
-    <t>1.4.3 For ANPP</t>
-  </si>
-  <si>
     <t>2.1. Allocation to aboveground productivity varies with:</t>
   </si>
   <si>
@@ -144,9 +102,6 @@
     <t>Strength of climate as a predictor</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1. Climate is a strong predictor (r-squared &gt; 0.5) of productivity </t>
-  </si>
-  <si>
     <t>3.1.1. GPP</t>
   </si>
   <si>
@@ -166,13 +121,58 @@
   </si>
   <si>
     <t>1.3. Productivity increases with precipitation, but saturates</t>
+  </si>
+  <si>
+    <t>GPP</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>ANPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNPP </t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>1.1. Productivity decresaes linarly with latitude</t>
+  </si>
+  <si>
+    <t>1.1.alt. Productivity is simlar in tropical and temperate forests, but lower in boreal regions (concave trend with latitude)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>1.2. productivity plateaus around 10C MAT</t>
+  </si>
+  <si>
+    <t>1.3alt. Productivity decreases at higher precip</t>
+  </si>
+  <si>
+    <t>1.5. Climate variables other than MAT and MAP improve predictions of productivity</t>
+  </si>
+  <si>
+    <t>supporing citations</t>
+  </si>
+  <si>
+    <t>3.1. Climate is a strong predictor (r-squared &gt; 0.5) of productivity on a global scale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,12 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,333 +553,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8F555F-2159-4A04-BD88-24041C9128D5}">
-  <dimension ref="A4:I45"/>
+  <dimension ref="A4:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="I33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A528A2-312C-B04D-8D31-0DE3DB1F9E0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE46AC-2A96-D24B-BBE3-323D912973F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26380" windowHeight="15500" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
+    <workbookView xWindow="1720" yWindow="1300" windowWidth="26380" windowHeight="15500" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Prediction</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>3.1. Climate is a strong predictor (r-squared &gt; 0.5) of productivity on a global scale</t>
+  </si>
+  <si>
+    <t>(old)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.alt. Productivity is simlar in tropical and temperate forests, but lower in boreal regions (concave trend with latitude)</t>
+  </si>
+  <si>
+    <t>1.3 allocation varies with latitude</t>
+  </si>
+  <si>
+    <t>1.2 latitude is strong predictor</t>
+  </si>
+  <si>
+    <t>1. latitude - what are the patterns (when we have lots of data for many fluxes, limited to mature undisturbed forests)</t>
+  </si>
+  <si>
+    <t>2. Climate - what drives latitudinal gradient</t>
+  </si>
+  <si>
+    <t>alternate</t>
   </si>
 </sst>
 </file>
@@ -553,15 +574,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8F555F-2159-4A04-BD88-24041C9128D5}">
-  <dimension ref="A4:O38"/>
+  <dimension ref="A3:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,33 +596,43 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="O5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -615,8 +651,11 @@
       <c r="N6" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -635,8 +674,11 @@
       <c r="N7" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -655,8 +697,11 @@
       <c r="N8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -675,21 +720,30 @@
       <c r="N9" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -705,29 +759,44 @@
       <c r="M12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J16" t="s">
         <v>7</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE46AC-2A96-D24B-BBE3-323D912973F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2506AFA-14D9-694B-948C-62FB10E21A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1300" windowWidth="26380" windowHeight="15500" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
+    <sheet name="previous version" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="105">
   <si>
     <t>Prediction</t>
   </si>
@@ -171,29 +172,182 @@
     <t>(old)</t>
   </si>
   <si>
-    <t xml:space="preserve">   1.1.alt. Productivity is simlar in tropical and temperate forests, but lower in boreal regions (concave trend with latitude)</t>
-  </si>
-  <si>
-    <t>1.3 allocation varies with latitude</t>
-  </si>
-  <si>
-    <t>1.2 latitude is strong predictor</t>
-  </si>
-  <si>
-    <t>1. latitude - what are the patterns (when we have lots of data for many fluxes, limited to mature undisturbed forests)</t>
-  </si>
-  <si>
-    <t>2. Climate - what drives latitudinal gradient</t>
-  </si>
-  <si>
-    <t>alternate</t>
+    <t>ANPP_foliage</t>
+  </si>
+  <si>
+    <t>ANPP_woody</t>
+  </si>
+  <si>
+    <t>1.1. Productivity decresaes steadily with latitude</t>
+  </si>
+  <si>
+    <t>1.3 latitude is a strong predictor (r-squared &gt; 0.5) of productivity on a global scale</t>
+  </si>
+  <si>
+    <t>R_auto_root</t>
+  </si>
+  <si>
+    <t>R_auto</t>
+  </si>
+  <si>
+    <t>BNPP_root_fine</t>
+  </si>
+  <si>
+    <t>Hypotheses &amp; Specific Predictions</t>
+  </si>
+  <si>
+    <t>(yes)</t>
+  </si>
+  <si>
+    <t>1.4 C fluxes increase in constant proportion to one another across the latitudinal gradient</t>
+  </si>
+  <si>
+    <t>2.3. There is a postive interaction between temperature and precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4alt. allocation varies with latitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2. C fluxes increase with precipitation but saturate or decrease at very high levels (concave down, decreasing) </t>
+  </si>
+  <si>
+    <t>1.1.alt. Productivity is simlar in tropical and temperate forests, but lower in boreal regions (concave down, decreasing)</t>
+  </si>
+  <si>
+    <t>1.2.  (closure of fluxes)</t>
+  </si>
+  <si>
+    <t>(no)</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Fig. 2</t>
+  </si>
+  <si>
+    <t>Fig. 3</t>
+  </si>
+  <si>
+    <t>Fig. 4</t>
+  </si>
+  <si>
+    <t>Fig. 5</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>C flux variables</t>
+  </si>
+  <si>
+    <t>1. How do C fluxes vary with latitude?</t>
+  </si>
+  <si>
+    <t>2. How do C fluxes relate to MAT and MAP?</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>when presenting this an others, we need to be sure to emphasize that we're testing these hypotheses with unprecedented amount of data across many fluxes, limited to mature undisturbed forests.</t>
+  </si>
+  <si>
+    <t>this isn't really an interesting hypothesis, but it does lend confidence to our data. Thus, I'd probably put it ahead of Fig. 2-- as background material</t>
+  </si>
+  <si>
+    <t>we focus on these drivers because these variables are the most commonly reported and have been the focus of much previous research</t>
+  </si>
+  <si>
+    <t>(Michaletz)</t>
+  </si>
+  <si>
+    <t>3.1. concave down increase with PET</t>
+  </si>
+  <si>
+    <t>3.2. steady increase with solar radiation</t>
+  </si>
+  <si>
+    <t>other?</t>
+  </si>
+  <si>
+    <t>3. How do C fluxes relate to other annual climate variables?</t>
+  </si>
+  <si>
+    <t>4. What is the role of seasonality?</t>
+  </si>
+  <si>
+    <t>4.1. decreases with temperature seasonality (concave up, decreasing)</t>
+  </si>
+  <si>
+    <t>zero seasonality lends big advantage, matters less as seasonality increases</t>
+  </si>
+  <si>
+    <t>4.2. decreases with (growing season) precipiation seasonality (concave up, decreasing)</t>
+  </si>
+  <si>
+    <t>4.3. increases with growing season length (T and moisture) (concave up, increasing)</t>
+  </si>
+  <si>
+    <t>5. Per month of the growing seaon, how does productivity vary with climate?</t>
+  </si>
+  <si>
+    <t>5.1. independent of temperature</t>
+  </si>
+  <si>
+    <t>consider what to list as prediction</t>
+  </si>
+  <si>
+    <t>2.1. C flux increases exponentially with MAT across the latitudinal gradient</t>
+  </si>
+  <si>
+    <t>Related references</t>
+  </si>
+  <si>
+    <t>testing basic hypothesis that plants are adapted to their climates and have similar productivity rates during the growing season</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>no (+)</t>
+  </si>
+  <si>
+    <t>5.2. independent of PET</t>
+  </si>
+  <si>
+    <t>(no : +)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>5.3. indpendent of precipitation</t>
+  </si>
+  <si>
+    <t>5.4. independent of solar radiation</t>
+  </si>
+  <si>
+    <t>no (+)?</t>
+  </si>
+  <si>
+    <t>(mixed)</t>
+  </si>
+  <si>
+    <t>will change if we add growing season. Consider how to present hypothesis</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>this correction takes out a lot o the variation associated with latitude, and correlations with climate variables become weak to non-existent. Hard to attribute mechanisms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,16 +386,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -249,17 +424,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,21 +863,690 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3C0F34-F222-714B-B192-5135CFF186EC}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="13" width="6.1640625" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" ht="65" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="35"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+    </row>
+    <row r="30" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8F555F-2159-4A04-BD88-24041C9128D5}">
-  <dimension ref="A3:Q38"/>
+  <dimension ref="A4:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +1555,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -628,11 +1587,8 @@
       <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -651,11 +1607,8 @@
       <c r="N6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -674,11 +1627,8 @@
       <c r="N7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -697,11 +1647,8 @@
       <c r="N8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -720,30 +1667,21 @@
       <c r="N9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -759,44 +1697,29 @@
       <c r="M12" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J16" t="s">
         <v>7</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2506AFA-14D9-694B-948C-62FB10E21A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546F8EB-7446-4C4C-8873-B875001988B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
   <si>
     <t>Prediction</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>this correction takes out a lot o the variation associated with latitude, and correlations with climate variables become weak to non-existent. Hard to attribute mechanisms</t>
+  </si>
+  <si>
+    <t>4.4. growing season length is a better predictor than MAT</t>
   </si>
 </sst>
 </file>
@@ -864,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3C0F34-F222-714B-B192-5135CFF186EC}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1335,202 +1338,213 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P25" t="s">
         <v>92</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q25" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
         <v>94</v>
       </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" t="s">
-        <v>40</v>
-      </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="L26" t="s">
         <v>40</v>
       </c>
       <c r="M26" t="s">
         <v>40</v>
+      </c>
+      <c r="P26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
         <v>97</v>
       </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
         <v>93</v>
       </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34" t="s">
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E29" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F29" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="35" t="s">
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="40" t="s">
+      <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="L28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="35"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
+      <c r="L29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-    </row>
-    <row r="31" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+    </row>
+    <row r="31" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546F8EB-7446-4C4C-8873-B875001988B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D49536-9973-48DE-917D-1D556E77E8C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="107">
   <si>
     <t>Prediction</t>
   </si>
@@ -265,9 +265,6 @@
     <t>3.1. concave down increase with PET</t>
   </si>
   <si>
-    <t>3.2. steady increase with solar radiation</t>
-  </si>
-  <si>
     <t>other?</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>consider what to list as prediction</t>
   </si>
   <si>
-    <t>2.1. C flux increases exponentially with MAT across the latitudinal gradient</t>
-  </si>
-  <si>
     <t>Related references</t>
   </si>
   <si>
@@ -344,13 +338,22 @@
   </si>
   <si>
     <t>4.4. growing season length is a better predictor than MAT</t>
+  </si>
+  <si>
+    <t>2.1. C flux increases linearly with MAT across the latitudinal gradient</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3.2. linear increase with solar radiation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +403,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -553,6 +562,14 @@
       <alignment horizontal="left" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,21 +887,22 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="13" width="6.1640625" customWidth="1"/>
+    <col min="5" max="13" width="6.1796875" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -902,7 +920,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -918,13 +936,13 @@
       <c r="M3" s="36"/>
       <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:17" ht="65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>37</v>
@@ -963,10 +981,10 @@
         <v>73</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
@@ -975,7 +993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1013,7 +1031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>61</v>
@@ -1053,7 +1071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>62</v>
       </c>
@@ -1074,7 +1092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>51</v>
       </c>
@@ -1102,7 +1120,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1123,7 +1141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>59</v>
@@ -1134,15 +1152,29 @@
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>72</v>
       </c>
@@ -1161,50 +1193,88 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" t="s">
+    <row r="13" spans="1:17" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="P13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="P13" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="N14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1240,9 +1310,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1255,42 +1325,82 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="N17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1306,41 +1416,41 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="N21" t="s">
         <v>67</v>
       </c>
       <c r="P21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="48" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
+      <c r="P22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="P23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>77</v>
@@ -1349,21 +1459,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>77</v>
@@ -1378,13 +1488,13 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
         <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
         <v>40</v>
@@ -1399,37 +1509,37 @@
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s">
         <v>40</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s">
         <v>40</v>
@@ -1438,10 +1548,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
@@ -1453,13 +1563,13 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
         <v>40</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
         <v>40</v>
@@ -1474,26 +1584,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="33"/>
       <c r="B29" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s">
         <v>40</v>
@@ -1502,7 +1612,7 @@
         <v>40</v>
       </c>
       <c r="K29" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L29" t="s">
         <v>40</v>
@@ -1512,7 +1622,7 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -1528,7 +1638,7 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
     </row>
-    <row r="31" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -1544,9 +1654,10 @@
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
     </row>
-    <row r="32" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1558,9 +1669,9 @@
       <selection activeCell="J12" sqref="J12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1680,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +1713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1622,7 +1733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1642,7 +1753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1682,7 +1793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1690,12 +1801,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1712,22 +1823,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -1736,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -1745,7 +1856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -1754,12 +1865,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -1768,7 +1879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -1777,7 +1888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -1786,12 +1897,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -1800,7 +1911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -1809,7 +1920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -1818,12 +1929,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -1832,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -1841,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -1850,17 +1961,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -1869,7 +1980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -1878,7 +1989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -1887,7 +1998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -1896,7 +2007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -1905,7 +2016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>30</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banburymorganr\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D49536-9973-48DE-917D-1D556E77E8C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{464D37DE-A202-47B6-AAD1-9C715936C2A4}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
     <sheet name="previous version" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="107">
   <si>
     <t>Prediction</t>
   </si>
@@ -178,9 +177,6 @@
     <t>ANPP_woody</t>
   </si>
   <si>
-    <t>1.1. Productivity decresaes steadily with latitude</t>
-  </si>
-  <si>
     <t>1.3 latitude is a strong predictor (r-squared &gt; 0.5) of productivity on a global scale</t>
   </si>
   <si>
@@ -202,24 +198,12 @@
     <t>1.4 C fluxes increase in constant proportion to one another across the latitudinal gradient</t>
   </si>
   <si>
-    <t>2.3. There is a postive interaction between temperature and precipitation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4alt. allocation varies with latitude </t>
   </si>
   <si>
-    <t xml:space="preserve">2.2. C fluxes increase with precipitation but saturate or decrease at very high levels (concave down, decreasing) </t>
-  </si>
-  <si>
-    <t>1.1.alt. Productivity is simlar in tropical and temperate forests, but lower in boreal regions (concave down, decreasing)</t>
-  </si>
-  <si>
     <t>1.2.  (closure of fluxes)</t>
   </si>
   <si>
-    <t>(no)</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
@@ -262,9 +246,6 @@
     <t>(Michaletz)</t>
   </si>
   <si>
-    <t>3.1. concave down increase with PET</t>
-  </si>
-  <si>
     <t>other?</t>
   </si>
   <si>
@@ -274,24 +255,12 @@
     <t>4. What is the role of seasonality?</t>
   </si>
   <si>
-    <t>4.1. decreases with temperature seasonality (concave up, decreasing)</t>
-  </si>
-  <si>
     <t>zero seasonality lends big advantage, matters less as seasonality increases</t>
   </si>
   <si>
-    <t>4.2. decreases with (growing season) precipiation seasonality (concave up, decreasing)</t>
-  </si>
-  <si>
-    <t>4.3. increases with growing season length (T and moisture) (concave up, increasing)</t>
-  </si>
-  <si>
     <t>5. Per month of the growing seaon, how does productivity vary with climate?</t>
   </si>
   <si>
-    <t>5.1. independent of temperature</t>
-  </si>
-  <si>
     <t>consider what to list as prediction</t>
   </si>
   <si>
@@ -301,30 +270,6 @@
     <t>testing basic hypothesis that plants are adapted to their climates and have similar productivity rates during the growing season</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>no (+)</t>
-  </si>
-  <si>
-    <t>5.2. independent of PET</t>
-  </si>
-  <si>
-    <t>(no : +)</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>5.3. indpendent of precipitation</t>
-  </si>
-  <si>
-    <t>5.4. independent of solar radiation</t>
-  </si>
-  <si>
-    <t>no (+)?</t>
-  </si>
-  <si>
     <t>(mixed)</t>
   </si>
   <si>
@@ -337,22 +282,109 @@
     <t>this correction takes out a lot o the variation associated with latitude, and correlations with climate variables become weak to non-existent. Hard to attribute mechanisms</t>
   </si>
   <si>
-    <t>4.4. growing season length is a better predictor than MAT</t>
-  </si>
-  <si>
     <t>2.1. C flux increases linearly with MAT across the latitudinal gradient</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>3.2. linear increase with solar radiation</t>
+    <t>2.3. There is an interaction between temperature and precipitation</t>
+  </si>
+  <si>
+    <t>consider how to distinguish between positive and negative interactions</t>
+  </si>
+  <si>
+    <t>4.1. Productivity decreases with temperature seasonality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2. C fluxes increase with precipitation but saturate or decrease at very high levels (concave down, increasing) </t>
+  </si>
+  <si>
+    <t>1.1. Productivity decreases with latitude</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The shape of the relationship is linear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The shape of the relationship is convex decreasing</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1. Productivity increases with PET (concave down, increasing)</t>
+  </si>
+  <si>
+    <t>3.2. Productivity increases linearly with solar radiation</t>
+  </si>
+  <si>
+    <t>4.2. Productivity decreases with  precipitation seasonality</t>
+  </si>
+  <si>
+    <t>1.1.alt. Productivity is similar in tropical and temperate forests, but lower in boreal regions (concave down, decreasing)</t>
+  </si>
+  <si>
+    <t>() indicates no significant relationship</t>
+  </si>
+  <si>
+    <t>no indicates significant relationship but no support for hypothesis</t>
+  </si>
+  <si>
+    <t>yes indicates support for hypothesis</t>
+  </si>
+  <si>
+    <t>4.3. Productivity increases with growing season length</t>
+  </si>
+  <si>
+    <t>4.4. Growing season length is a better predictor than MAT</t>
+  </si>
+  <si>
+    <t>5.1. Increases with temperature</t>
+  </si>
+  <si>
+    <t>5.2. Increases with of PET</t>
+  </si>
+  <si>
+    <t>5.3. Increases with precipitation</t>
+  </si>
+  <si>
+    <t>5.4. Increases with solar radiation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,6 +602,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,26 +921,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3C0F34-F222-714B-B192-5135CFF186EC}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="13" width="6.1796875" customWidth="1"/>
+    <col min="5" max="13" width="6.140625" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -912,7 +950,7 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -920,7 +958,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -936,13 +974,13 @@
       <c r="M3" s="36"/>
       <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:17" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>37</v>
@@ -966,42 +1004,42 @@
         <v>49</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="27" t="s">
-        <v>53</v>
-      </c>
       <c r="N4" s="26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6"/>
       <c r="P5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>40</v>
@@ -1022,19 +1060,19 @@
         <v>40</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="30" t="s">
@@ -1068,593 +1106,807 @@
         <v>41</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>41</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="P13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="W17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="P12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="D26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="7" t="s">
+      <c r="Q27" t="s">
         <v>84</v>
       </c>
-      <c r="P22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P25" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>98</v>
+        <v>64</v>
+      </c>
+      <c r="P28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="J29" t="s">
         <v>40</v>
       </c>
-      <c r="K29" s="40" t="s">
-        <v>92</v>
+      <c r="K29" t="s">
+        <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="35"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-    </row>
-    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="35"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1662,16 +1914,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8F555F-2159-4A04-BD88-24041C9128D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O38"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J12" sqref="J12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1932,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1733,7 +1985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1753,7 +2005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1773,7 +2025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1793,7 +2045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1801,12 +2053,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1823,22 +2075,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -1847,7 +2099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -1856,7 +2108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -1865,12 +2117,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -1879,7 +2131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -1888,7 +2140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -1897,12 +2149,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -1911,7 +2163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -1920,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -1929,12 +2181,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -1943,7 +2195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -1952,7 +2204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -1961,17 +2213,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -1980,7 +2232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -1989,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -1998,7 +2250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -2007,7 +2259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -2016,7 +2268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>30</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="107">
   <si>
     <t>Prediction</t>
   </si>
@@ -195,12 +195,6 @@
     <t>(yes)</t>
   </si>
   <si>
-    <t>1.4 C fluxes increase in constant proportion to one another across the latitudinal gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4alt. allocation varies with latitude </t>
-  </si>
-  <si>
     <t>1.2.  (closure of fluxes)</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
     <t>(Michaletz)</t>
   </si>
   <si>
-    <t>other?</t>
-  </si>
-  <si>
     <t>3. How do C fluxes relate to other annual climate variables?</t>
   </si>
   <si>
@@ -282,9 +273,6 @@
     <t>this correction takes out a lot o the variation associated with latitude, and correlations with climate variables become weak to non-existent. Hard to attribute mechanisms</t>
   </si>
   <si>
-    <t>2.1. C flux increases linearly with MAT across the latitudinal gradient</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -294,66 +282,9 @@
     <t>consider how to distinguish between positive and negative interactions</t>
   </si>
   <si>
-    <t>4.1. Productivity decreases with temperature seasonality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2. C fluxes increase with precipitation but saturate or decrease at very high levels (concave down, increasing) </t>
-  </si>
-  <si>
-    <t>1.1. Productivity decreases with latitude</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1.1.1. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The shape of the relationship is linear</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.1.1. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The shape of the relationship is convex decreasing</t>
-    </r>
-  </si>
-  <si>
-    <t>3.1. Productivity increases with PET (concave down, increasing)</t>
-  </si>
-  <si>
     <t>3.2. Productivity increases linearly with solar radiation</t>
   </si>
   <si>
-    <t>4.2. Productivity decreases with  precipitation seasonality</t>
-  </si>
-  <si>
-    <t>1.1.alt. Productivity is similar in tropical and temperate forests, but lower in boreal regions (concave down, decreasing)</t>
-  </si>
-  <si>
     <t>() indicates no significant relationship</t>
   </si>
   <si>
@@ -363,9 +294,6 @@
     <t>yes indicates support for hypothesis</t>
   </si>
   <si>
-    <t>4.3. Productivity increases with growing season length</t>
-  </si>
-  <si>
     <t>4.4. Growing season length is a better predictor than MAT</t>
   </si>
   <si>
@@ -379,6 +307,45 @@
   </si>
   <si>
     <t>5.4. Increases with solar radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4. Allocation to carbon fluxes varies with latitude </t>
+  </si>
+  <si>
+    <t>1.1. Productivity decreases linearly with latitude</t>
+  </si>
+  <si>
+    <t>L+</t>
+  </si>
+  <si>
+    <t>Codes are used to indicate where a relationship was significant but different from the hypothesised relationship:</t>
+  </si>
+  <si>
+    <t>2.1. Productivity increases linearly with MAT across the latitudinal gradient</t>
+  </si>
+  <si>
+    <t>3.1. Productivity increases with PET, but saturates or decreases at high levels (CD+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2. Productivity increases with precipitation but saturates or decreases at very high levels (CD+) </t>
+  </si>
+  <si>
+    <t>CD+</t>
+  </si>
+  <si>
+    <t>1.1.alt. Productivity is similar in tropical and temperate forests, but lower in boreal regions (CD-)</t>
+  </si>
+  <si>
+    <t>4.1. Productivity decreases linearly with temperature seasonality</t>
+  </si>
+  <si>
+    <t>4.2. Productivity decreases linearly with  precipitation seasonality</t>
+  </si>
+  <si>
+    <t>CU+</t>
+  </si>
+  <si>
+    <t>4.3. Productivity increases linearly with growing season length</t>
   </si>
 </sst>
 </file>
@@ -510,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,6 +574,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,11 +895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,8 +912,8 @@
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -950,7 +923,7 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -958,7 +931,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -974,13 +947,13 @@
       <c r="M3" s="36"/>
       <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:17" ht="65.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>37</v>
@@ -1013,27 +986,27 @@
         <v>52</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="6"/>
       <c r="P5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>40</v>
@@ -1066,13 +1039,13 @@
         <v>40</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="30" t="s">
@@ -1106,109 +1079,107 @@
         <v>41</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="16" t="s">
-        <v>55</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1218,150 +1189,154 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="P12" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="W15" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="P13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
-        <v>87</v>
+    </row>
+    <row r="16" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>55</v>
@@ -1370,7 +1345,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>40</v>
@@ -1379,534 +1354,425 @@
         <v>40</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>40</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s">
+        <v>73</v>
+      </c>
+      <c r="W19" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="W17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="P23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" t="s">
-        <v>62</v>
-      </c>
-      <c r="W18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="W19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>84</v>
-      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" t="s">
-        <v>64</v>
-      </c>
-      <c r="M30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M31" t="s">
-        <v>64</v>
-      </c>
-      <c r="N31" s="35"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1783,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12:M12"/>
     </sheetView>
   </sheetViews>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -899,7 +899,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1486,7 @@
         <v>62</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>62</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -898,8 +898,8 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banburymorganr\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6338FDE8-3744-B145-AB9B-71BE93FFD7F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
   <si>
     <t>Prediction</t>
   </si>
@@ -177,9 +178,6 @@
     <t>ANPP_woody</t>
   </si>
   <si>
-    <t>1.3 latitude is a strong predictor (r-squared &gt; 0.5) of productivity on a global scale</t>
-  </si>
-  <si>
     <t>R_auto_root</t>
   </si>
   <si>
@@ -195,18 +193,9 @@
     <t>(yes)</t>
   </si>
   <si>
-    <t>1.2.  (closure of fluxes)</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
-    <t>Fig. 2</t>
-  </si>
-  <si>
-    <t>Fig. 3</t>
-  </si>
-  <si>
     <t>Fig. 4</t>
   </si>
   <si>
@@ -231,9 +220,6 @@
     <t>when presenting this an others, we need to be sure to emphasize that we're testing these hypotheses with unprecedented amount of data across many fluxes, limited to mature undisturbed forests.</t>
   </si>
   <si>
-    <t>this isn't really an interesting hypothesis, but it does lend confidence to our data. Thus, I'd probably put it ahead of Fig. 2-- as background material</t>
-  </si>
-  <si>
     <t>we focus on these drivers because these variables are the most commonly reported and have been the focus of much previous research</t>
   </si>
   <si>
@@ -346,12 +332,21 @@
   </si>
   <si>
     <t>4.3. Productivity increases linearly with growing season length</t>
+  </si>
+  <si>
+    <t>Fig. 2-3</t>
+  </si>
+  <si>
+    <t>(Fig. 3)</t>
+  </si>
+  <si>
+    <t>[deficit]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,9 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -539,9 +531,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -894,885 +883,852 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="13" width="6.140625" customWidth="1"/>
+    <col min="5" max="13" width="6.1640625" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="1:23" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="19" t="s">
+    <row r="1" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:23" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" spans="1:23" ht="65" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="27" t="s">
+      <c r="K4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>64</v>
+      <c r="N4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="6"/>
       <c r="P5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="42" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="W13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="P18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="W18" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="P11" t="s">
+      <c r="D21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="W15" t="s">
+      <c r="P22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" t="s">
-        <v>60</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="N19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="W19" s="47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
+      <c r="E26" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" t="s">
-        <v>62</v>
-      </c>
-      <c r="N27" s="35"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>58</v>
+      </c>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+    </row>
+    <row r="28" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1780,16 +1736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1754,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +1807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1871,7 +1827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1891,7 +1847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1911,7 +1867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1919,12 +1875,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1941,22 +1897,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -1965,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -1974,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -1983,12 +1939,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -1997,7 +1953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -2006,7 +1962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -2015,12 +1971,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -2029,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2038,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -2047,12 +2003,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -2061,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -2070,7 +2026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -2079,17 +2035,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -2098,7 +2054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -2107,7 +2063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -2116,7 +2072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -2125,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -2134,7 +2090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>30</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6338FDE8-3744-B145-AB9B-71BE93FFD7F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0531D085-6E63-3A40-A985-3851FAB52A00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0531D085-6E63-3A40-A985-3851FAB52A00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46622910-1D9A-4906-B8E8-6448A9986678}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3950" yWindow="4120" windowWidth="7920" windowHeight="5750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="113">
   <si>
     <t>Prediction</t>
   </si>
@@ -223,9 +223,6 @@
     <t>we focus on these drivers because these variables are the most commonly reported and have been the focus of much previous research</t>
   </si>
   <si>
-    <t>(Michaletz)</t>
-  </si>
-  <si>
     <t>3. How do C fluxes relate to other annual climate variables?</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>consider how to distinguish between positive and negative interactions</t>
   </si>
   <si>
-    <t>3.2. Productivity increases linearly with solar radiation</t>
-  </si>
-  <si>
     <t>() indicates no significant relationship</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>5.1. Increases with temperature</t>
   </si>
   <si>
-    <t>5.2. Increases with of PET</t>
-  </si>
-  <si>
     <t>5.3. Increases with precipitation</t>
   </si>
   <si>
@@ -298,18 +289,12 @@
     <t xml:space="preserve">1.4. Allocation to carbon fluxes varies with latitude </t>
   </si>
   <si>
-    <t>1.1. Productivity decreases linearly with latitude</t>
-  </si>
-  <si>
     <t>L+</t>
   </si>
   <si>
     <t>Codes are used to indicate where a relationship was significant but different from the hypothesised relationship:</t>
   </si>
   <si>
-    <t>2.1. Productivity increases linearly with MAT across the latitudinal gradient</t>
-  </si>
-  <si>
     <t>3.1. Productivity increases with PET, but saturates or decreases at high levels (CD+)</t>
   </si>
   <si>
@@ -340,14 +325,73 @@
     <t>(Fig. 3)</t>
   </si>
   <si>
-    <t>[deficit]</t>
+    <t>Michaletz et al. (2014)</t>
+  </si>
+  <si>
+    <t>5.2. Increases with PET</t>
+  </si>
+  <si>
+    <t>Michaletz et al. (2014); Chu et al. (2016)</t>
+  </si>
+  <si>
+    <t>Gillman et al. (2015); Simova and Storch (2017)</t>
+  </si>
+  <si>
+    <t>Litton et al. (2007)</t>
+  </si>
+  <si>
+    <t>3.3. Productivity increases linearly with solar radiation</t>
+  </si>
+  <si>
+    <t>3.2. Productivity increases with vapour pressure deficit, but saturates or decreases at high levels (CD+)</t>
+  </si>
+  <si>
+    <t>Taylor et al. (2016)</t>
+  </si>
+  <si>
+    <t>Schuur (2003)</t>
+  </si>
+  <si>
+    <t>2.1. Productivity increases linearly with MAT (L+)</t>
+  </si>
+  <si>
+    <t>1.1. Productivity decreases linearly with latitude (L-)</t>
+  </si>
+  <si>
+    <t>Malhi (2012); Michaletz et al. (2014); Chu et al. (2016)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Luyssaert et al. (2007</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Luyssaert et al. (2007); Schuur (2003)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,14 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -408,18 +444,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -472,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,12 +524,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,15 +573,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -569,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,103 +915,103 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y31" sqref="Y31"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="13" width="6.1640625" customWidth="1"/>
+    <col min="5" max="13" width="6.1796875" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="36" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="1:23" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="1:23" ht="65" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q4" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -993,603 +1020,639 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="P9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="42" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="42" t="s">
+    <row r="10" spans="1:23" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="P10" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="15" t="s">
+    <row r="12" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="15" t="s">
+      <c r="E12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="N12" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44" t="s">
+      <c r="O12" s="42"/>
+      <c r="P12" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="W13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="W13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="15" t="s">
+    <row r="14" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>91</v>
+      <c r="E14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="N14" t="s">
         <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="15" t="s">
+    </row>
+    <row r="16" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="15" t="s">
+      <c r="E16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="W15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>100</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="N18" t="s">
         <v>56</v>
       </c>
       <c r="P18" t="s">
+        <v>67</v>
+      </c>
+      <c r="W18" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="W18" s="45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="P22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
@@ -1622,10 +1685,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -1658,25 +1721,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="33" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="31" t="s">
         <v>40</v>
       </c>
       <c r="I26" t="s">
@@ -1685,7 +1748,7 @@
       <c r="J26" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="36" t="s">
         <v>40</v>
       </c>
       <c r="L26" t="s">
@@ -1694,41 +1757,41 @@
       <c r="M26" t="s">
         <v>58</v>
       </c>
-      <c r="N26" s="33"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-    </row>
-    <row r="28" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1743,9 +1806,9 @@
       <selection activeCell="J12" sqref="J12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1817,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1807,7 +1870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1827,7 +1890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1847,7 +1910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1867,7 +1930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1875,12 +1938,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1897,22 +1960,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -1921,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -1930,7 +1993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -1939,12 +2002,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -1953,7 +2016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -1962,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -1971,12 +2034,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -1985,7 +2048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -1994,7 +2057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -2003,12 +2066,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -2017,7 +2080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -2026,7 +2089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -2035,17 +2098,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -2054,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -2063,7 +2126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -2072,7 +2135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -2081,7 +2144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -2090,7 +2153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>30</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46622910-1D9A-4906-B8E8-6448A9986678}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53C376-EF55-4F7B-A10B-26F59F29BD46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3950" yWindow="4120" windowWidth="7920" windowHeight="5750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4120" windowWidth="7920" windowHeight="5750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banburymorganr\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53C376-EF55-4F7B-A10B-26F59F29BD46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4120" windowWidth="7920" windowHeight="5750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4125" windowWidth="7920" windowHeight="5745"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
   <si>
     <t>Prediction</t>
   </si>
@@ -217,12 +216,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>when presenting this an others, we need to be sure to emphasize that we're testing these hypotheses with unprecedented amount of data across many fluxes, limited to mature undisturbed forests.</t>
-  </si>
-  <si>
-    <t>we focus on these drivers because these variables are the most commonly reported and have been the focus of much previous research</t>
-  </si>
-  <si>
     <t>3. How do C fluxes relate to other annual climate variables?</t>
   </si>
   <si>
@@ -235,9 +228,6 @@
     <t>5. Per month of the growing seaon, how does productivity vary with climate?</t>
   </si>
   <si>
-    <t>consider what to list as prediction</t>
-  </si>
-  <si>
     <t>Related references</t>
   </si>
   <si>
@@ -259,42 +249,15 @@
     <t>-</t>
   </si>
   <si>
-    <t>2.3. There is an interaction between temperature and precipitation</t>
-  </si>
-  <si>
-    <t>consider how to distinguish between positive and negative interactions</t>
-  </si>
-  <si>
-    <t>() indicates no significant relationship</t>
-  </si>
-  <si>
-    <t>no indicates significant relationship but no support for hypothesis</t>
-  </si>
-  <si>
-    <t>yes indicates support for hypothesis</t>
-  </si>
-  <si>
     <t>4.4. Growing season length is a better predictor than MAT</t>
   </si>
   <si>
-    <t>5.1. Increases with temperature</t>
-  </si>
-  <si>
-    <t>5.3. Increases with precipitation</t>
-  </si>
-  <si>
-    <t>5.4. Increases with solar radiation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4. Allocation to carbon fluxes varies with latitude </t>
   </si>
   <si>
     <t>L+</t>
   </si>
   <si>
-    <t>Codes are used to indicate where a relationship was significant but different from the hypothesised relationship:</t>
-  </si>
-  <si>
     <t>3.1. Productivity increases with PET, but saturates or decreases at high levels (CD+)</t>
   </si>
   <si>
@@ -307,30 +270,15 @@
     <t>1.1.alt. Productivity is similar in tropical and temperate forests, but lower in boreal regions (CD-)</t>
   </si>
   <si>
-    <t>4.1. Productivity decreases linearly with temperature seasonality</t>
-  </si>
-  <si>
-    <t>4.2. Productivity decreases linearly with  precipitation seasonality</t>
-  </si>
-  <si>
     <t>CU+</t>
   </si>
   <si>
-    <t>4.3. Productivity increases linearly with growing season length</t>
-  </si>
-  <si>
     <t>Fig. 2-3</t>
   </si>
   <si>
-    <t>(Fig. 3)</t>
-  </si>
-  <si>
     <t>Michaletz et al. (2014)</t>
   </si>
   <si>
-    <t>5.2. Increases with PET</t>
-  </si>
-  <si>
     <t>Michaletz et al. (2014); Chu et al. (2016)</t>
   </si>
   <si>
@@ -338,9 +286,6 @@
   </si>
   <si>
     <t>Litton et al. (2007)</t>
-  </si>
-  <si>
-    <t>3.3. Productivity increases linearly with solar radiation</t>
   </si>
   <si>
     <t>3.2. Productivity increases with vapour pressure deficit, but saturates or decreases at high levels (CD+)</t>
@@ -386,11 +331,41 @@
   <si>
     <t>Luyssaert et al. (2007); Schuur (2003)</t>
   </si>
+  <si>
+    <t>3.3. Productivity increases linearly with solar radiation (L+)</t>
+  </si>
+  <si>
+    <t>4.1. Productivity decreases linearly with temperature seasonality (L-)</t>
+  </si>
+  <si>
+    <t>4.2. Productivity decreases linearly with  precipitation seasonality (L-)</t>
+  </si>
+  <si>
+    <t>4.3. Productivity increases linearly with growing season length (L+)</t>
+  </si>
+  <si>
+    <t>5.1. Increases with temperature (L+)</t>
+  </si>
+  <si>
+    <t>5.2. Increases with PET (L+)</t>
+  </si>
+  <si>
+    <t>5.3. Increases with precipitation (L+)</t>
+  </si>
+  <si>
+    <t>5.4. Increases with solar radiation (L+)</t>
+  </si>
+  <si>
+    <t>2.3. There is a postive interaction between temperature and precipitation (I+)</t>
+  </si>
+  <si>
+    <t>I-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,6 +571,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,6 +593,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4343400" cy="2847959"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12471400" y="1282700"/>
+          <a:ext cx="4343400" cy="2847959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>How to read table:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - Hypothesis predicts specific shape of relationship</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - A dash (-) indicates the flux was not tested for this hypothesis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - () indicates the results are not significant; we reject the hypothesis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - 'yes' indicates there is a significant relationship in the specific shape predicted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - If the relationship is significant, but is not the shape specified in the hypothesis, a code is used to specify the shape of the significant relationship. Codes used are:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	- 'L': a linear relationship</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	- 'CD': concave down</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	- 'CU': concave up</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	- 'I': an interactive relationship</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	- '+': relationship is increasing/positive</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	- '-': relationship is decreasing/negative</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,26 +1018,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="13" width="6.1796875" customWidth="1"/>
+    <col min="5" max="13" width="6.140625" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -947,7 +1055,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:23" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -963,13 +1071,13 @@
       <c r="M3" s="32"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>37</v>
@@ -1008,24 +1116,27 @@
         <v>62</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="P5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+    </row>
+    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>40</v>
@@ -1057,17 +1168,23 @@
       <c r="M6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N6" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+    </row>
+    <row r="7" spans="1:24" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>41</v>
@@ -1099,23 +1216,29 @@
       <c r="M7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="N7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+    </row>
+    <row r="8" spans="1:24" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>103</v>
-      </c>
       <c r="D8" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>41</v>
@@ -1136,16 +1259,20 @@
         <v>41</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
@@ -1160,17 +1287,21 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="P9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="N9" s="13"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+    </row>
+    <row r="10" spans="1:24" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>40</v>
@@ -1202,19 +1333,22 @@
       <c r="M10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+    </row>
+    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>40</v>
@@ -1238,24 +1372,30 @@
         <v>58</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+    </row>
+    <row r="12" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>54</v>
@@ -1264,22 +1404,22 @@
         <v>40</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>40</v>
@@ -1287,17 +1427,15 @@
       <c r="M12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N12" t="s">
-        <v>57</v>
+      <c r="N12" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="O12" s="42"/>
-      <c r="P12" s="42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P12" s="42"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1309,13 +1447,11 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="W13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>54</v>
@@ -1333,30 +1469,27 @@
         <v>40</v>
       </c>
       <c r="I14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>54</v>
@@ -1380,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>40</v>
@@ -1388,13 +1521,13 @@
       <c r="M15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="N15" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>54</v>
@@ -1409,13 +1542,13 @@
         <v>40</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>40</v>
@@ -1426,197 +1559,194 @@
       <c r="M16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" t="s">
+        <v>65</v>
+      </c>
+      <c r="W18" s="43"/>
+    </row>
+    <row r="19" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" t="s">
-        <v>67</v>
-      </c>
-      <c r="W18" s="43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="N22" s="13"/>
+      <c r="P22" t="s">
         <v>68</v>
       </c>
-      <c r="P22" t="s">
-        <v>71</v>
-      </c>
       <c r="Q22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>58</v>
@@ -1645,11 +1775,12 @@
       <c r="M23" t="s">
         <v>58</v>
       </c>
+      <c r="N23" s="13"/>
       <c r="P23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>100</v>
@@ -1684,11 +1815,12 @@
       <c r="M24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -1720,15 +1852,16 @@
       <c r="M25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="30" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>40</v>
@@ -1757,9 +1890,9 @@
       <c r="M26" t="s">
         <v>58</v>
       </c>
-      <c r="N26" s="31"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -1775,7 +1908,7 @@
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -1791,24 +1924,28 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="S5:X11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:M12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1954,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1850,7 +1987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +2007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +2027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +2047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1930,7 +2067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1938,12 +2075,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1960,22 +2097,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -1984,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -1993,7 +2130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -2002,12 +2139,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2016,7 +2153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -2025,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -2034,12 +2171,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -2048,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2057,7 +2194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -2066,12 +2203,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -2080,7 +2217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -2089,7 +2226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -2098,17 +2235,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -2117,7 +2254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -2126,7 +2263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -2135,7 +2272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -2144,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -2153,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>30</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banburymorganr\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA59F51-765B-4EBA-8E52-170B3CF694F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4125" windowWidth="7920" windowHeight="5745"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -365,7 +366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +577,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +608,13 @@
     <xdr:ext cx="4343400" cy="2847959"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1018,26 +1025,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="13" width="6.140625" customWidth="1"/>
+    <col min="5" max="13" width="6.1796875" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1055,7 +1062,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:24" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -1071,7 +1078,7 @@
       <c r="M3" s="32"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:24" ht="65.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>53</v>
@@ -1119,7 +1126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -1131,7 +1138,7 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
     </row>
-    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>91</v>
       </c>
@@ -1178,7 +1185,7 @@
       <c r="W6" s="47"/>
       <c r="X6" s="47"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>80</v>
@@ -1226,7 +1233,7 @@
       <c r="W7" s="47"/>
       <c r="X7" s="47"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>75</v>
@@ -1272,7 +1279,7 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
@@ -1295,7 +1302,7 @@
       <c r="W9" s="47"/>
       <c r="X9" s="47"/>
     </row>
-    <row r="10" spans="1:24" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>90</v>
@@ -1343,7 +1350,7 @@
       <c r="W10" s="47"/>
       <c r="X10" s="47"/>
     </row>
-    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>78</v>
       </c>
@@ -1390,7 +1397,7 @@
       <c r="W11" s="47"/>
       <c r="X11" s="47"/>
     </row>
-    <row r="12" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="41" t="s">
         <v>103</v>
       </c>
@@ -1432,8 +1439,14 @@
       </c>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
@@ -1449,7 +1462,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>77</v>
       </c>
@@ -1487,7 +1500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>87</v>
       </c>
@@ -1525,7 +1538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="45" t="s">
         <v>95</v>
       </c>
@@ -1561,13 +1574,13 @@
       </c>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="41" t="s">
         <v>96</v>
       </c>
@@ -1609,7 +1622,7 @@
       </c>
       <c r="W18" s="43"/>
     </row>
-    <row r="19" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="41" t="s">
         <v>97</v>
       </c>
@@ -1645,7 +1658,7 @@
       </c>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
         <v>98</v>
       </c>
@@ -1686,7 +1699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>74</v>
       </c>
@@ -1725,7 +1738,7 @@
       </c>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>66</v>
       </c>
@@ -1737,7 +1750,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="7" t="s">
         <v>99</v>
@@ -1780,7 +1793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>100</v>
@@ -1817,7 +1830,7 @@
       </c>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>101</v>
@@ -1854,7 +1867,7 @@
       </c>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="29"/>
       <c r="B26" s="30" t="s">
         <v>102</v>
@@ -1892,7 +1905,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -1908,7 +1921,7 @@
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -1924,10 +1937,10 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="S5:X11"/>
+    <mergeCell ref="S5:X12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1936,16 +1949,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:O38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +1967,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +2000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2007,7 +2020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2027,7 +2040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2067,7 +2080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2075,12 +2088,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2097,22 +2110,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -2121,7 +2134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -2130,7 +2143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -2139,12 +2152,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2153,7 +2166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -2162,7 +2175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -2171,12 +2184,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -2185,7 +2198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2194,7 +2207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -2203,12 +2216,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -2217,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -2226,7 +2239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -2235,17 +2248,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -2254,7 +2267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -2263,7 +2276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -2272,7 +2285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -2281,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -2290,7 +2303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>30</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA59F51-765B-4EBA-8E52-170B3CF694F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A959DF3-F0EA-7D45-ABF8-B5FF484FE241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="108">
   <si>
     <t>Prediction</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>4.4. Growing season length is a better predictor than MAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4. Allocation to carbon fluxes varies with latitude </t>
   </si>
   <si>
     <t>L+</t>
@@ -361,6 +358,18 @@
   </si>
   <si>
     <t>I-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check that references are listed in correct rowsbetween 1.1 and 1.1.alt. I think they should be switched. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2. Allocation to carbon fluxes varies with latitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 Variability with respect to latitude is similar across fluxes. </t>
+  </si>
+  <si>
+    <t>I'm still struggling with where to put this, but I think it makes sense to group it with C allocation and possibly closure of fluxes</t>
   </si>
 </sst>
 </file>
@@ -420,12 +429,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -478,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,6 +593,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,25 +1047,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="13" width="6.1796875" customWidth="1"/>
+    <col min="5" max="13" width="6.1640625" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1062,7 +1083,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:24" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -1078,7 +1099,7 @@
       <c r="M3" s="32"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:24" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="65" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>53</v>
@@ -1126,7 +1147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -1138,12 +1159,12 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
     </row>
-    <row r="6" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>40</v>
@@ -1176,7 +1197,10 @@
         <v>40</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
@@ -1185,13 +1209,13 @@
       <c r="W6" s="47"/>
       <c r="X6" s="47"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>41</v>
@@ -1224,7 +1248,7 @@
         <v>41</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="47"/>
@@ -1233,13 +1257,13 @@
       <c r="W7" s="47"/>
       <c r="X7" s="47"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>41</v>
@@ -1279,22 +1303,26 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+    <row r="9" spans="1:24" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="P9" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="S9" s="47"/>
       <c r="T9" s="47"/>
       <c r="U9" s="47"/>
@@ -1302,47 +1330,22 @@
       <c r="W9" s="47"/>
       <c r="X9" s="47"/>
     </row>
-    <row r="10" spans="1:24" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>57</v>
-      </c>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
@@ -1350,44 +1353,45 @@
       <c r="W10" s="47"/>
       <c r="X10" s="47"/>
     </row>
-    <row r="11" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="13" t="s">
+    <row r="11" spans="1:24" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="37" t="s">
         <v>57</v>
       </c>
       <c r="S11" s="47"/>
@@ -1397,48 +1401,46 @@
       <c r="W11" s="47"/>
       <c r="X11" s="47"/>
     </row>
-    <row r="12" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="41" t="s">
-        <v>103</v>
+    <row r="12" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
+        <v>57</v>
+      </c>
       <c r="S12" s="47"/>
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
@@ -1446,63 +1448,74 @@
       <c r="W12" s="47"/>
       <c r="X12" s="47"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="44" t="s">
         <v>76</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>54</v>
@@ -1520,27 +1533,27 @@
         <v>40</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="45" t="s">
-        <v>95</v>
+    <row r="16" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>54</v>
@@ -1555,272 +1568,270 @@
         <v>40</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="N16" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="B17" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" s="43"/>
+    </row>
+    <row r="20" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" s="13" t="s">
+      <c r="D20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P18" t="s">
-        <v>65</v>
-      </c>
-      <c r="W18" s="43"/>
-    </row>
-    <row r="19" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="C22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="P22" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" t="s">
-        <v>58</v>
       </c>
       <c r="N23" s="13"/>
       <c r="P23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L24" t="s">
         <v>58</v>
@@ -1829,118 +1840,158 @@
         <v>58</v>
       </c>
       <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" t="s">
-        <v>58</v>
-      </c>
-      <c r="N26" s="46"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-    </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-    </row>
-    <row r="29" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="E27" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="46"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="S5:X12"/>
+    <mergeCell ref="S5:X13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1956,9 +2007,9 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +2018,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2000,7 +2051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2020,7 +2071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2040,7 +2091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2060,7 +2111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2080,7 +2131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2088,12 +2139,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2110,22 +2161,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -2134,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -2143,7 +2194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -2152,12 +2203,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2166,7 +2217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -2175,7 +2226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -2184,12 +2235,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -2198,7 +2249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2207,7 +2258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -2216,12 +2267,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -2230,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -2239,7 +2290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -2248,17 +2299,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -2267,7 +2318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -2276,7 +2327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -2285,7 +2336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -2294,7 +2345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -2303,7 +2354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>30</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/ForC-db/Global_Productivity/manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banburymorganr\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A959DF3-F0EA-7D45-ABF8-B5FF484FE241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19035" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="KAT_6_19" sheetId="2" r:id="rId1"/>
@@ -208,27 +207,15 @@
     <t>C flux variables</t>
   </si>
   <si>
-    <t>1. How do C fluxes vary with latitude?</t>
-  </si>
-  <si>
-    <t>2. How do C fluxes relate to MAT and MAP?</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>3. How do C fluxes relate to other annual climate variables?</t>
-  </si>
-  <si>
     <t>4. What is the role of seasonality?</t>
   </si>
   <si>
     <t>zero seasonality lends big advantage, matters less as seasonality increases</t>
   </si>
   <si>
-    <t>5. Per month of the growing seaon, how does productivity vary with climate?</t>
-  </si>
-  <si>
     <t>Related references</t>
   </si>
   <si>
@@ -250,24 +237,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>4.4. Growing season length is a better predictor than MAT</t>
-  </si>
-  <si>
     <t>L+</t>
   </si>
   <si>
-    <t>3.1. Productivity increases with PET, but saturates or decreases at high levels (CD+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2. Productivity increases with precipitation but saturates or decreases at very high levels (CD+) </t>
-  </si>
-  <si>
     <t>CD+</t>
   </si>
   <si>
-    <t>1.1.alt. Productivity is similar in tropical and temperate forests, but lower in boreal regions (CD-)</t>
-  </si>
-  <si>
     <t>CU+</t>
   </si>
   <si>
@@ -286,19 +261,10 @@
     <t>Litton et al. (2007)</t>
   </si>
   <si>
-    <t>3.2. Productivity increases with vapour pressure deficit, but saturates or decreases at high levels (CD+)</t>
-  </si>
-  <si>
     <t>Taylor et al. (2016)</t>
   </si>
   <si>
     <t>Schuur (2003)</t>
-  </si>
-  <si>
-    <t>2.1. Productivity increases linearly with MAT (L+)</t>
-  </si>
-  <si>
-    <t>1.1. Productivity decreases linearly with latitude (L-)</t>
   </si>
   <si>
     <t>Malhi (2012); Michaletz et al. (2014); Chu et al. (2016)</t>
@@ -330,30 +296,6 @@
     <t>Luyssaert et al. (2007); Schuur (2003)</t>
   </si>
   <si>
-    <t>3.3. Productivity increases linearly with solar radiation (L+)</t>
-  </si>
-  <si>
-    <t>4.1. Productivity decreases linearly with temperature seasonality (L-)</t>
-  </si>
-  <si>
-    <t>4.2. Productivity decreases linearly with  precipitation seasonality (L-)</t>
-  </si>
-  <si>
-    <t>4.3. Productivity increases linearly with growing season length (L+)</t>
-  </si>
-  <si>
-    <t>5.1. Increases with temperature (L+)</t>
-  </si>
-  <si>
-    <t>5.2. Increases with PET (L+)</t>
-  </si>
-  <si>
-    <t>5.3. Increases with precipitation (L+)</t>
-  </si>
-  <si>
-    <t>5.4. Increases with solar radiation (L+)</t>
-  </si>
-  <si>
     <t>2.3. There is a postive interaction between temperature and precipitation (I+)</t>
   </si>
   <si>
@@ -363,19 +305,76 @@
     <t xml:space="preserve">check that references are listed in correct rowsbetween 1.1 and 1.1.alt. I think they should be switched. </t>
   </si>
   <si>
-    <t xml:space="preserve">1.2. Allocation to carbon fluxes varies with latitude </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3 Variability with respect to latitude is similar across fluxes. </t>
   </si>
   <si>
     <t>I'm still struggling with where to put this, but I think it makes sense to group it with C allocation and possibly closure of fluxes</t>
+  </si>
+  <si>
+    <t>1.1. FACF decrease linearly with latitude (L-)</t>
+  </si>
+  <si>
+    <t>1.1.alt. FACF are similar in tropical and temperate forests, but lower in boreal regions (CD-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2. Allocation to FACF varies with latitude </t>
+  </si>
+  <si>
+    <t>2.1. FACF increase linearly with MAT (L+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2. FACF increase with precipitation but saturate or decrease at very high levels (CD+) </t>
+  </si>
+  <si>
+    <t>3.1. FACF increases with PET, but saturates or decreases at high levels (CD+)</t>
+  </si>
+  <si>
+    <t>3. How do FACF relate to other annual climate variables?</t>
+  </si>
+  <si>
+    <t>2. How do FACF relate to MAT and MAP?</t>
+  </si>
+  <si>
+    <t>1. How do FACF vary with latitude?</t>
+  </si>
+  <si>
+    <t>3.2. FACF increase with vapour pressure deficit, but saturate or decrease at high levels (CD+)</t>
+  </si>
+  <si>
+    <t>3.3. FACF increase linearly with solar radiation (L+)</t>
+  </si>
+  <si>
+    <t>4.1. FACF decrease linearly with temperature seasonality (L-)</t>
+  </si>
+  <si>
+    <t>4.2. FACF decrease linearly with  precipitation seasonality (L-)</t>
+  </si>
+  <si>
+    <t>4.3. FACF increase linearly with growing season length (L+)</t>
+  </si>
+  <si>
+    <t>4.4. Growing season length is a better predictor of FACF than MAT</t>
+  </si>
+  <si>
+    <t>5. Per month of the growing seaon, how do FACF vary with climate?</t>
+  </si>
+  <si>
+    <t>5.1. Increase with temperature (L+)</t>
+  </si>
+  <si>
+    <t>5.2. Increase with PET (L+)</t>
+  </si>
+  <si>
+    <t>5.3. Increase with precipitation (L+)</t>
+  </si>
+  <si>
+    <t>5.4. Increase with solar radiation (L+)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,14 +590,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,26 +1045,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="13" width="6.1640625" customWidth="1"/>
+    <col min="5" max="13" width="6.140625" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1083,7 +1082,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:24" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -1099,13 +1098,13 @@
       <c r="M3" s="32"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>37</v>
@@ -1141,30 +1140,30 @@
         <v>55</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-    </row>
-    <row r="6" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+    </row>
+    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>40</v>
@@ -1197,25 +1196,25 @@
         <v>40</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-    </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+    </row>
+    <row r="7" spans="1:24" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>41</v>
@@ -1248,28 +1247,28 @@
         <v>41</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-    </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+    </row>
+    <row r="8" spans="1:24" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>41</v>
@@ -1290,23 +1289,23 @@
         <v>41</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-    </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+    </row>
+    <row r="9" spans="1:24" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="48" t="s">
-        <v>106</v>
+      <c r="B9" s="47" t="s">
+        <v>86</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="26"/>
@@ -1321,18 +1320,18 @@
       <c r="M9" s="26"/>
       <c r="N9" s="27"/>
       <c r="P9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
@@ -1346,20 +1345,20 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-    </row>
-    <row r="11" spans="1:24" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+    </row>
+    <row r="11" spans="1:24" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>40</v>
@@ -1394,19 +1393,19 @@
       <c r="N11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-    </row>
-    <row r="12" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+    </row>
+    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>40</v>
@@ -1430,10 +1429,10 @@
         <v>58</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>40</v>
@@ -1441,19 +1440,19 @@
       <c r="N12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-    </row>
-    <row r="13" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+    </row>
+    <row r="13" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>54</v>
@@ -1462,22 +1461,22 @@
         <v>40</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L13" s="13" t="s">
         <v>40</v>
@@ -1490,16 +1489,16 @@
       </c>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -1513,9 +1512,9 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>54</v>
@@ -1533,27 +1532,27 @@
         <v>40</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>54</v>
@@ -1577,7 +1576,7 @@
         <v>40</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>40</v>
@@ -1589,9 +1588,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>54</v>
@@ -1606,13 +1605,13 @@
         <v>40</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>40</v>
@@ -1625,27 +1624,27 @@
       </c>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>40</v>
@@ -1660,22 +1659,22 @@
         <v>40</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="P19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W19" s="43"/>
     </row>
-    <row r="20" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>41</v>
@@ -1709,12 +1708,12 @@
       </c>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>40</v>
@@ -1750,12 +1749,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>41</v>
@@ -1789,28 +1788,28 @@
       </c>
       <c r="N22" s="13"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="N23" s="13"/>
       <c r="P23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" t="s">
         <v>68</v>
       </c>
-      <c r="Q23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -1841,13 +1840,13 @@
       </c>
       <c r="N24" s="13"/>
       <c r="P24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
@@ -1881,10 +1880,10 @@
       </c>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
@@ -1918,14 +1917,14 @@
       </c>
       <c r="N26" s="13"/>
     </row>
-    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="30" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>40</v>
@@ -1956,7 +1955,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -1972,7 +1971,7 @@
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
     </row>
-    <row r="29" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -1988,7 +1987,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="S5:X13"/>
@@ -2000,16 +1999,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2017,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2139,12 +2138,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2161,22 +2160,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -2185,7 +2184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -2194,7 +2193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -2203,12 +2202,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2217,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -2226,7 +2225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -2235,12 +2234,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -2249,7 +2248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2258,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -2267,12 +2266,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -2281,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -2290,7 +2289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -2299,17 +2298,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -2318,7 +2317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -2327,7 +2326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -2336,7 +2335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -2345,7 +2344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -2354,7 +2353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>30</v>

--- a/manuscript/Hypothesis table.xlsx
+++ b/manuscript/Hypothesis table.xlsx
@@ -1050,7 +1050,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
